--- a/target/classes/testdata/TestNGProject1.xlsx
+++ b/target/classes/testdata/TestNGProject1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashmikanduluvavikraman/selenium-workspace/TestNGProject/src/main/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B54405-9D05-9848-8FCC-D508C009A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B159070-876F-1D44-9271-36A5B1609C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{D5945736-00B2-DE4D-AC28-96E643FEAD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{D5945736-00B2-DE4D-AC28-96E643FEAD74}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="AddCustomerPage" sheetId="2" r:id="rId2"/>
-    <sheet name="NewAccountPage" sheetId="3" r:id="rId3"/>
-    <sheet name="NewDepositPage" sheetId="4" r:id="rId4"/>
+    <sheet name="NewAccountPage" sheetId="3" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId2"/>
+    <sheet name="AddCustomerPage" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountTitle</t>
   </si>
@@ -86,6 +85,12 @@
   </si>
   <si>
     <t>123-456-7897</t>
+  </si>
+  <si>
+    <t>dummy@techfios.com</t>
+  </si>
+  <si>
+    <t>asd123</t>
   </si>
 </sst>
 </file>
@@ -447,60 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E0D0A-A3AF-2E4D-9ABA-DC727903778E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9C410275-97A0-AF48-9718-1A87BC70F762}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B7ABD-7962-1147-A909-FC567F7D2BDF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0B5FFD-841D-364F-9BFA-5C1DA1110029}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,12 +521,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B0399-5990-0346-A74A-6102771E2C4F}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E0D0A-A3AF-2E4D-9ABA-DC727903778E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9C410275-97A0-AF48-9718-1A87BC70F762}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{FDDC7C09-ED7B-2D4D-A2BB-E3FABAAD541E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B7ABD-7962-1147-A909-FC567F7D2BDF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
